--- a/SQL_note.xlsx
+++ b/SQL_note.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Programming\Python\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42DA9CAA-A74E-4A4D-9D59-7BA92D8F1489}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02FB3299-D185-47A7-A162-63475E949AFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,6 +17,7 @@
     <sheet name="Case_If" sheetId="4" r:id="rId2"/>
     <sheet name="Consecutive" sheetId="2" r:id="rId3"/>
     <sheet name="Subquery" sheetId="3" r:id="rId4"/>
+    <sheet name="WindowFunction" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="82">
   <si>
     <t>Number</t>
   </si>
@@ -217,16 +218,80 @@
   </si>
   <si>
     <t>Case</t>
+  </si>
+  <si>
+    <t>610. Triangle Judgement</t>
+  </si>
+  <si>
+    <t>If</t>
+  </si>
+  <si>
+    <t>612. Shortest Distance in a Plane</t>
+  </si>
+  <si>
+    <t>All combinations</t>
+  </si>
+  <si>
+    <t>Join on not equal</t>
+  </si>
+  <si>
+    <t>613. Shortest Distance in a Line</t>
+  </si>
+  <si>
+    <t>615. Average Salary: Departments VS Company</t>
+  </si>
+  <si>
+    <t>CTE</t>
+  </si>
+  <si>
+    <t>Format Date</t>
+  </si>
+  <si>
+    <t>619. Biggest Single Number</t>
+  </si>
+  <si>
+    <t>618. Students Report By Geography</t>
+  </si>
+  <si>
+    <t>Pivot</t>
+  </si>
+  <si>
+    <t>620. Not Boring Movies</t>
+  </si>
+  <si>
+    <t>626. Exchange Seats</t>
+  </si>
+  <si>
+    <t>Shift</t>
+  </si>
+  <si>
+    <t>627. Swap Salary</t>
+  </si>
+  <si>
+    <t>UPDATE</t>
+  </si>
+  <si>
+    <t>SET</t>
+  </si>
+  <si>
+    <t>1045. Customers Who Bought All Products</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -258,9 +323,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -541,10 +611,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1046,6 +1116,9 @@
       <c r="C28" t="s">
         <v>20</v>
       </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
       <c r="E28" t="s">
         <v>56</v>
       </c>
@@ -1063,6 +1136,9 @@
       <c r="C29" t="s">
         <v>4</v>
       </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
       <c r="E29" t="s">
         <v>58</v>
       </c>
@@ -1071,7 +1147,7 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
+      <c r="A30">
         <v>603</v>
       </c>
       <c r="B30" t="s">
@@ -1080,12 +1156,15 @@
       <c r="C30" t="s">
         <v>6</v>
       </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
       <c r="E30" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
+      <c r="A31">
         <v>607</v>
       </c>
       <c r="B31" t="s">
@@ -1093,6 +1172,9 @@
       </c>
       <c r="C31" t="s">
         <v>6</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
       </c>
       <c r="E31" t="s">
         <v>25</v>
@@ -1108,11 +1190,190 @@
       <c r="C32" t="s">
         <v>4</v>
       </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
       <c r="E32" t="s">
         <v>62</v>
       </c>
     </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>610</v>
+      </c>
+      <c r="B33" t="s">
+        <v>63</v>
+      </c>
+      <c r="C33" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>612</v>
+      </c>
+      <c r="B34" t="s">
+        <v>65</v>
+      </c>
+      <c r="C34" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>613</v>
+      </c>
+      <c r="B35" t="s">
+        <v>68</v>
+      </c>
+      <c r="C35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35" s="3"/>
+      <c r="F35" s="4"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>615</v>
+      </c>
+      <c r="B36" t="s">
+        <v>69</v>
+      </c>
+      <c r="C36" t="s">
+        <v>20</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" t="s">
+        <v>25</v>
+      </c>
+      <c r="G36" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>618</v>
+      </c>
+      <c r="B37" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37" t="s">
+        <v>20</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F37" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>619</v>
+      </c>
+      <c r="B38" t="s">
+        <v>72</v>
+      </c>
+      <c r="C38" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>620</v>
+      </c>
+      <c r="B39" t="s">
+        <v>75</v>
+      </c>
+      <c r="C39" t="s">
+        <v>6</v>
+      </c>
+      <c r="E39" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>626</v>
+      </c>
+      <c r="B40" t="s">
+        <v>76</v>
+      </c>
+      <c r="C40" t="s">
+        <v>4</v>
+      </c>
+      <c r="E40" t="s">
+        <v>77</v>
+      </c>
+      <c r="F40" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>627</v>
+      </c>
+      <c r="B41" t="s">
+        <v>78</v>
+      </c>
+      <c r="C41" t="s">
+        <v>6</v>
+      </c>
+      <c r="E41" t="s">
+        <v>79</v>
+      </c>
+      <c r="F41" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>1045</v>
+      </c>
+      <c r="B42" t="s">
+        <v>81</v>
+      </c>
+      <c r="C42" t="s">
+        <v>4</v>
+      </c>
+      <c r="E42" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="F34:F35"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
@@ -1224,10 +1485,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1C66215-512F-4C68-9552-EB13EF882064}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1283,6 +1544,66 @@
         <v>6</v>
       </c>
     </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>615</v>
+      </c>
+      <c r="B5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83D9E85A-C1AC-4836-A9E2-709A36849A5C}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>618</v>
+      </c>
+      <c r="B2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/SQL_note.xlsx
+++ b/SQL_note.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Programming\Python\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02FB3299-D185-47A7-A162-63475E949AFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E009061-41FD-4BB2-9B87-8E9BD6E39518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="89">
   <si>
     <t>Number</t>
   </si>
@@ -275,6 +275,27 @@
   </si>
   <si>
     <t>1045. Customers Who Bought All Products</t>
+  </si>
+  <si>
+    <t>Second Day Review</t>
+  </si>
+  <si>
+    <t>1050. Actors and Directors Who Cooperated At Least Three Times</t>
+  </si>
+  <si>
+    <t>1070. Product Sales Analysis III</t>
+  </si>
+  <si>
+    <t>Useless table</t>
+  </si>
+  <si>
+    <t>1077. Project Employees III</t>
+  </si>
+  <si>
+    <t>1082. Sales Analysis I</t>
+  </si>
+  <si>
+    <t>1097. Game Play Analysis V</t>
   </si>
 </sst>
 </file>
@@ -611,10 +632,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -622,10 +643,11 @@
     <col min="2" max="2" width="31.140625" customWidth="1"/>
     <col min="5" max="5" width="30" customWidth="1"/>
     <col min="6" max="6" width="23.42578125" customWidth="1"/>
-    <col min="7" max="7" width="77.5703125" customWidth="1"/>
+    <col min="7" max="7" width="90" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -647,8 +669,11 @@
       <c r="G1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>184</v>
       </c>
@@ -665,7 +690,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>175</v>
       </c>
@@ -682,7 +707,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>176</v>
       </c>
@@ -699,7 +724,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>177</v>
       </c>
@@ -716,7 +741,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>178</v>
       </c>
@@ -733,7 +758,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>180</v>
       </c>
@@ -750,7 +775,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>181</v>
       </c>
@@ -767,7 +792,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>182</v>
       </c>
@@ -787,7 +812,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>183</v>
       </c>
@@ -804,7 +829,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>185</v>
       </c>
@@ -824,7 +849,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>196</v>
       </c>
@@ -844,7 +869,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>511</v>
       </c>
@@ -861,7 +886,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>512</v>
       </c>
@@ -878,7 +903,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>534</v>
       </c>
@@ -898,7 +923,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>550</v>
       </c>
@@ -1283,6 +1308,9 @@
       <c r="C37" t="s">
         <v>20</v>
       </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
       <c r="E37" s="2" t="s">
         <v>12</v>
       </c>
@@ -1317,6 +1345,9 @@
       <c r="C39" t="s">
         <v>6</v>
       </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
       <c r="E39" t="s">
         <v>50</v>
       </c>
@@ -1331,6 +1362,9 @@
       <c r="C40" t="s">
         <v>4</v>
       </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
       <c r="E40" t="s">
         <v>77</v>
       </c>
@@ -1348,6 +1382,9 @@
       <c r="C41" t="s">
         <v>6</v>
       </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
       <c r="E41" t="s">
         <v>79</v>
       </c>
@@ -1365,8 +1402,102 @@
       <c r="C42" t="s">
         <v>4</v>
       </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
       <c r="E42" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>1050</v>
+      </c>
+      <c r="B43" t="s">
+        <v>83</v>
+      </c>
+      <c r="C43" t="s">
+        <v>6</v>
+      </c>
+      <c r="E43" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>1070</v>
+      </c>
+      <c r="B44" t="s">
+        <v>84</v>
+      </c>
+      <c r="C44" t="s">
+        <v>4</v>
+      </c>
+      <c r="E44" t="s">
+        <v>37</v>
+      </c>
+      <c r="F44" t="s">
+        <v>25</v>
+      </c>
+      <c r="G44" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>1077</v>
+      </c>
+      <c r="B45" t="s">
+        <v>86</v>
+      </c>
+      <c r="C45" t="s">
+        <v>4</v>
+      </c>
+      <c r="E45" t="s">
+        <v>37</v>
+      </c>
+      <c r="F45" t="s">
+        <v>25</v>
+      </c>
+      <c r="G45" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>1082</v>
+      </c>
+      <c r="B46" t="s">
+        <v>87</v>
+      </c>
+      <c r="C46" t="s">
+        <v>6</v>
+      </c>
+      <c r="E46" t="s">
+        <v>37</v>
+      </c>
+      <c r="F46" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>1097</v>
+      </c>
+      <c r="B47" t="s">
+        <v>88</v>
+      </c>
+      <c r="C47" t="s">
+        <v>20</v>
+      </c>
+      <c r="E47" t="s">
+        <v>16</v>
+      </c>
+      <c r="F47" t="s">
+        <v>37</v>
+      </c>
+      <c r="G47" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/SQL_note.xlsx
+++ b/SQL_note.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Programming\Python\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E009061-41FD-4BB2-9B87-8E9BD6E39518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D151D2EA-9A66-4016-BA37-A2546124F1EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Log" sheetId="1" r:id="rId1"/>
     <sheet name="Case_If" sheetId="4" r:id="rId2"/>
     <sheet name="Consecutive" sheetId="2" r:id="rId3"/>
-    <sheet name="Subquery" sheetId="3" r:id="rId4"/>
-    <sheet name="WindowFunction" sheetId="5" r:id="rId5"/>
+    <sheet name="Date" sheetId="6" r:id="rId4"/>
+    <sheet name="Subquery" sheetId="3" r:id="rId5"/>
+    <sheet name="WindowFunction" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="107">
   <si>
     <t>Number</t>
   </si>
@@ -296,6 +297,60 @@
   </si>
   <si>
     <t>1097. Game Play Analysis V</t>
+  </si>
+  <si>
+    <t>1098. Unpopular Books</t>
+  </si>
+  <si>
+    <t>1107. New Users Daily Count</t>
+  </si>
+  <si>
+    <t>DATEDIFF</t>
+  </si>
+  <si>
+    <t>1112. Highest Grade For Each Student</t>
+  </si>
+  <si>
+    <t>ROW_NUMBER()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use comma to separate multiple ORDER BY </t>
+  </si>
+  <si>
+    <t>1068. Product Sales Analysis I</t>
+  </si>
+  <si>
+    <t>1126. Active Businesses</t>
+  </si>
+  <si>
+    <t>1127. User Purchase Platform</t>
+  </si>
+  <si>
+    <t>TODO</t>
+  </si>
+  <si>
+    <t>1132. Reported Posts II</t>
+  </si>
+  <si>
+    <t>1142. User Activity for the Past 30 Days II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GROUP BY </t>
+  </si>
+  <si>
+    <t>1148. Article Views I</t>
+  </si>
+  <si>
+    <t>Where</t>
+  </si>
+  <si>
+    <t>1149. Article Views II</t>
+  </si>
+  <si>
+    <t>GROUP BY</t>
+  </si>
+  <si>
+    <t>1158. Market Analysis I</t>
   </si>
 </sst>
 </file>
@@ -632,15 +687,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H47"/>
+  <dimension ref="A1:H58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E50" sqref="E50"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="31.140625" customWidth="1"/>
+    <col min="2" max="2" width="40.85546875" customWidth="1"/>
     <col min="5" max="5" width="30" customWidth="1"/>
     <col min="6" max="6" width="23.42578125" customWidth="1"/>
     <col min="7" max="7" width="90" customWidth="1"/>
@@ -1419,6 +1474,9 @@
       <c r="C43" t="s">
         <v>6</v>
       </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
       <c r="E43" t="s">
         <v>37</v>
       </c>
@@ -1433,6 +1491,9 @@
       <c r="C44" t="s">
         <v>4</v>
       </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
       <c r="E44" t="s">
         <v>37</v>
       </c>
@@ -1453,6 +1514,9 @@
       <c r="C45" t="s">
         <v>4</v>
       </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
       <c r="E45" t="s">
         <v>37</v>
       </c>
@@ -1473,6 +1537,9 @@
       <c r="C46" t="s">
         <v>6</v>
       </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
       <c r="E46" t="s">
         <v>37</v>
       </c>
@@ -1490,6 +1557,9 @@
       <c r="C47" t="s">
         <v>20</v>
       </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
       <c r="E47" t="s">
         <v>16</v>
       </c>
@@ -1498,6 +1568,187 @@
       </c>
       <c r="G47" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>1098</v>
+      </c>
+      <c r="B48" t="s">
+        <v>89</v>
+      </c>
+      <c r="C48" t="s">
+        <v>4</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48" t="s">
+        <v>10</v>
+      </c>
+      <c r="F48" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>1107</v>
+      </c>
+      <c r="B49" t="s">
+        <v>90</v>
+      </c>
+      <c r="C49" t="s">
+        <v>4</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>1112</v>
+      </c>
+      <c r="B50" t="s">
+        <v>92</v>
+      </c>
+      <c r="C50" t="s">
+        <v>4</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50" t="s">
+        <v>12</v>
+      </c>
+      <c r="F50" t="s">
+        <v>16</v>
+      </c>
+      <c r="G50" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>1068</v>
+      </c>
+      <c r="B51" t="s">
+        <v>95</v>
+      </c>
+      <c r="C51" t="s">
+        <v>6</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>1126</v>
+      </c>
+      <c r="B52" t="s">
+        <v>96</v>
+      </c>
+      <c r="C52" t="s">
+        <v>4</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>1127</v>
+      </c>
+      <c r="B53" t="s">
+        <v>97</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>1132</v>
+      </c>
+      <c r="B54" t="s">
+        <v>99</v>
+      </c>
+      <c r="C54" t="s">
+        <v>4</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>1142</v>
+      </c>
+      <c r="B55" t="s">
+        <v>100</v>
+      </c>
+      <c r="C55" t="s">
+        <v>4</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>1148</v>
+      </c>
+      <c r="B56" t="s">
+        <v>102</v>
+      </c>
+      <c r="C56" t="s">
+        <v>6</v>
+      </c>
+      <c r="E56" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>1149</v>
+      </c>
+      <c r="B57" t="s">
+        <v>104</v>
+      </c>
+      <c r="C57" t="s">
+        <v>4</v>
+      </c>
+      <c r="E57" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>1158</v>
+      </c>
+      <c r="B58" t="s">
+        <v>106</v>
+      </c>
+      <c r="C58" t="s">
+        <v>4</v>
+      </c>
+      <c r="E58" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -1615,6 +1866,18 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09F8262E-A815-49F3-8F89-225042D24DE2}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1C66215-512F-4C68-9552-EB13EF882064}">
   <dimension ref="A1:D5"/>
   <sheetViews>
@@ -1691,19 +1954,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83D9E85A-C1AC-4836-A9E2-709A36849A5C}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1719,6 +1983,9 @@
       <c r="D1" t="s">
         <v>9</v>
       </c>
+      <c r="E1" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
@@ -1734,6 +2001,34 @@
         <v>74</v>
       </c>
       <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1112</v>
+      </c>
+      <c r="B3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1126</v>
+      </c>
+      <c r="B4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SQL_note.xlsx
+++ b/SQL_note.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Programming\Python\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D151D2EA-9A66-4016-BA37-A2546124F1EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76606656-8E96-4D6E-9AC0-DE04C73CAA38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Log" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="116">
   <si>
     <t>Number</t>
   </si>
@@ -351,6 +351,33 @@
   </si>
   <si>
     <t>1158. Market Analysis I</t>
+  </si>
+  <si>
+    <t>1173. Immediate Food Delivery I</t>
+  </si>
+  <si>
+    <t>1164. Product Price at a Given Date</t>
+  </si>
+  <si>
+    <t>DISTINCT</t>
+  </si>
+  <si>
+    <t>Method 2 is an example to learn the difference between AND and WHERE in a JOIN</t>
+  </si>
+  <si>
+    <t>1113. Reported Posts</t>
+  </si>
+  <si>
+    <t>1083. Sales Analysis II</t>
+  </si>
+  <si>
+    <t>1159. Market Analysis II</t>
+  </si>
+  <si>
+    <t>Join 3 tables</t>
+  </si>
+  <si>
+    <t>1069. Product Sales Analysis II</t>
   </si>
 </sst>
 </file>
@@ -687,10 +714,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H58"/>
+  <dimension ref="A1:H65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="E58" sqref="E58"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="F69" sqref="F69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1719,6 +1746,9 @@
       <c r="C56" t="s">
         <v>6</v>
       </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
       <c r="E56" t="s">
         <v>103</v>
       </c>
@@ -1733,6 +1763,9 @@
       <c r="C57" t="s">
         <v>4</v>
       </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
       <c r="E57" t="s">
         <v>105</v>
       </c>
@@ -1747,7 +1780,121 @@
       <c r="C58" t="s">
         <v>4</v>
       </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
       <c r="E58" t="s">
+        <v>105</v>
+      </c>
+      <c r="G58" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>1164</v>
+      </c>
+      <c r="B59" t="s">
+        <v>108</v>
+      </c>
+      <c r="C59" t="s">
+        <v>4</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59" t="s">
+        <v>109</v>
+      </c>
+      <c r="F59" t="s">
+        <v>37</v>
+      </c>
+      <c r="G59" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>1173</v>
+      </c>
+      <c r="B61" t="s">
+        <v>107</v>
+      </c>
+      <c r="C61" t="s">
+        <v>6</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>1113</v>
+      </c>
+      <c r="B62" t="s">
+        <v>111</v>
+      </c>
+      <c r="C62" t="s">
+        <v>6</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>1083</v>
+      </c>
+      <c r="B63" t="s">
+        <v>112</v>
+      </c>
+      <c r="C63" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>1159</v>
+      </c>
+      <c r="B64" t="s">
+        <v>113</v>
+      </c>
+      <c r="C64" t="s">
+        <v>20</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64" t="s">
+        <v>12</v>
+      </c>
+      <c r="F64" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>1069</v>
+      </c>
+      <c r="B65" t="s">
+        <v>115</v>
+      </c>
+      <c r="C65" t="s">
+        <v>6</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65" t="s">
         <v>105</v>
       </c>
     </row>

--- a/SQL_note.xlsx
+++ b/SQL_note.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Programming\Python\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76606656-8E96-4D6E-9AC0-DE04C73CAA38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE338E91-A557-46FE-820B-F6A983DCBB4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Log" sheetId="1" r:id="rId1"/>
     <sheet name="Case_If" sheetId="4" r:id="rId2"/>
-    <sheet name="Consecutive" sheetId="2" r:id="rId3"/>
-    <sheet name="Date" sheetId="6" r:id="rId4"/>
-    <sheet name="Subquery" sheetId="3" r:id="rId5"/>
-    <sheet name="WindowFunction" sheetId="5" r:id="rId6"/>
+    <sheet name="Computation" sheetId="7" r:id="rId3"/>
+    <sheet name="Consecutive" sheetId="2" r:id="rId4"/>
+    <sheet name="Date" sheetId="6" r:id="rId5"/>
+    <sheet name="Subquery" sheetId="3" r:id="rId6"/>
+    <sheet name="WindowFunction" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="126">
   <si>
     <t>Number</t>
   </si>
@@ -378,6 +379,36 @@
   </si>
   <si>
     <t>1069. Product Sales Analysis II</t>
+  </si>
+  <si>
+    <t>1174. Immediate Food Delivery II</t>
+  </si>
+  <si>
+    <t>Other echniques</t>
+  </si>
+  <si>
+    <t>1193. Monthly Transactions I</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>IF</t>
+  </si>
+  <si>
+    <t>Format</t>
+  </si>
+  <si>
+    <t>1194. Tournament Winners</t>
+  </si>
+  <si>
+    <t>1204. Last Person to Fit in the Bus</t>
+  </si>
+  <si>
+    <t>1205. Monthly Transactions II</t>
+  </si>
+  <si>
+    <t>1211. Queries Quality and Percentage</t>
   </si>
 </sst>
 </file>
@@ -714,10 +745,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H65"/>
+  <dimension ref="A1:H71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="F69" sqref="F69"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="E72" sqref="E72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1881,7 +1912,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>1069</v>
       </c>
@@ -1896,6 +1927,99 @@
       </c>
       <c r="E65" t="s">
         <v>105</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>1174</v>
+      </c>
+      <c r="B66" t="s">
+        <v>116</v>
+      </c>
+      <c r="C66" t="s">
+        <v>4</v>
+      </c>
+      <c r="E66" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>1193</v>
+      </c>
+      <c r="B67" t="s">
+        <v>118</v>
+      </c>
+      <c r="C67" t="s">
+        <v>4</v>
+      </c>
+      <c r="E67" t="s">
+        <v>119</v>
+      </c>
+      <c r="F67" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>1194</v>
+      </c>
+      <c r="B68" t="s">
+        <v>122</v>
+      </c>
+      <c r="C68" t="s">
+        <v>20</v>
+      </c>
+      <c r="E68" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>1204</v>
+      </c>
+      <c r="B69" t="s">
+        <v>123</v>
+      </c>
+      <c r="C69" t="s">
+        <v>4</v>
+      </c>
+      <c r="E69" t="s">
+        <v>70</v>
+      </c>
+      <c r="F69" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>1205</v>
+      </c>
+      <c r="B70" t="s">
+        <v>124</v>
+      </c>
+      <c r="C70" t="s">
+        <v>4</v>
+      </c>
+      <c r="E70" t="s">
+        <v>70</v>
+      </c>
+      <c r="F70" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>1211</v>
+      </c>
+      <c r="B71" t="s">
+        <v>125</v>
+      </c>
+      <c r="C71" t="s">
+        <v>6</v>
+      </c>
+      <c r="E71" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1913,7 +2037,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1952,6 +2076,52 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D37D6EB-C551-4453-8E1D-2C25B6A806E6}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="49.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1174</v>
+      </c>
+      <c r="B2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B88E1EE6-301E-440D-A3D3-4065A8FDE979}">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -2012,19 +2182,50 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09F8262E-A815-49F3-8F89-225042D24DE2}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1193</v>
+      </c>
+      <c r="B2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1C66215-512F-4C68-9552-EB13EF882064}">
   <dimension ref="A1:D5"/>
   <sheetViews>
@@ -2101,7 +2302,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83D9E85A-C1AC-4836-A9E2-709A36849A5C}">
   <dimension ref="A1:E4"/>
   <sheetViews>

--- a/SQL_note.xlsx
+++ b/SQL_note.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Programming\Python\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE338E91-A557-46FE-820B-F6A983DCBB4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E4801CD-0500-4BF1-9BDC-72041C4C05DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="131">
   <si>
     <t>Number</t>
   </si>
@@ -409,6 +409,21 @@
   </si>
   <si>
     <t>1211. Queries Quality and Percentage</t>
+  </si>
+  <si>
+    <t>1241. Number of Comments per Post</t>
+  </si>
+  <si>
+    <t>Subquery</t>
+  </si>
+  <si>
+    <t>1251. Average Selling Price</t>
+  </si>
+  <si>
+    <t>1212. Team Scores in Football Tournament</t>
+  </si>
+  <si>
+    <t>CTE (multiple CTE)</t>
   </si>
 </sst>
 </file>
@@ -745,9 +760,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H71"/>
+  <dimension ref="A1:H74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
       <selection activeCell="E72" sqref="E72"/>
     </sheetView>
   </sheetViews>
@@ -1939,6 +1954,9 @@
       <c r="C66" t="s">
         <v>4</v>
       </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
       <c r="E66" t="s">
         <v>53</v>
       </c>
@@ -1953,6 +1971,9 @@
       <c r="C67" t="s">
         <v>4</v>
       </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
       <c r="E67" t="s">
         <v>119</v>
       </c>
@@ -1970,6 +1991,9 @@
       <c r="C68" t="s">
         <v>20</v>
       </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
       <c r="E68" t="s">
         <v>70</v>
       </c>
@@ -1984,6 +2008,9 @@
       <c r="C69" t="s">
         <v>4</v>
       </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
       <c r="E69" t="s">
         <v>70</v>
       </c>
@@ -2001,6 +2028,9 @@
       <c r="C70" t="s">
         <v>4</v>
       </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
       <c r="E70" t="s">
         <v>70</v>
       </c>
@@ -2018,8 +2048,53 @@
       <c r="C71" t="s">
         <v>6</v>
       </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
       <c r="E71" t="s">
         <v>53</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>1241</v>
+      </c>
+      <c r="B72" t="s">
+        <v>126</v>
+      </c>
+      <c r="C72" t="s">
+        <v>6</v>
+      </c>
+      <c r="E72" t="s">
+        <v>130</v>
+      </c>
+      <c r="F72" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>1251</v>
+      </c>
+      <c r="B73" t="s">
+        <v>128</v>
+      </c>
+      <c r="C73" t="s">
+        <v>6</v>
+      </c>
+      <c r="E73" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>1212</v>
+      </c>
+      <c r="B74" t="s">
+        <v>129</v>
+      </c>
+      <c r="C74" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -2077,18 +2152,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D37D6EB-C551-4453-8E1D-2C25B6A806E6}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="13" customWidth="1"/>
     <col min="2" max="2" width="49.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2102,7 +2180,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1174</v>
       </c>
@@ -2114,6 +2192,20 @@
       </c>
       <c r="D2" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1251</v>
+      </c>
+      <c r="B3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/SQL_note.xlsx
+++ b/SQL_note.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Programming\Python\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E4801CD-0500-4BF1-9BDC-72041C4C05DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57A9521C-4323-4CC1-9C34-AF8ED7116F46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Log" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="136">
   <si>
     <t>Number</t>
   </si>
@@ -424,6 +424,21 @@
   </si>
   <si>
     <t>CTE (multiple CTE)</t>
+  </si>
+  <si>
+    <t>1280. Students and Examinations</t>
+  </si>
+  <si>
+    <t>Join without ON</t>
+  </si>
+  <si>
+    <t>1270. All People Report to the Given Manager</t>
+  </si>
+  <si>
+    <t>1264. Page Recommendations</t>
+  </si>
+  <si>
+    <t>CASE</t>
   </si>
 </sst>
 </file>
@@ -760,10 +775,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H74"/>
+  <dimension ref="A1:H77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="E72" sqref="E72"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A77" sqref="A77:C77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2097,6 +2112,48 @@
         <v>4</v>
       </c>
     </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>1280</v>
+      </c>
+      <c r="B75" t="s">
+        <v>131</v>
+      </c>
+      <c r="C75" t="s">
+        <v>6</v>
+      </c>
+      <c r="E75" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>1270</v>
+      </c>
+      <c r="B76" t="s">
+        <v>133</v>
+      </c>
+      <c r="C76" t="s">
+        <v>4</v>
+      </c>
+      <c r="E76" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>1264</v>
+      </c>
+      <c r="B77" t="s">
+        <v>134</v>
+      </c>
+      <c r="C77" t="s">
+        <v>4</v>
+      </c>
+      <c r="E77" t="s">
+        <v>135</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="E34:E35"/>
@@ -2109,10 +2166,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A44FD36-F57A-417A-87E6-BBA807A35D43}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2142,6 +2199,17 @@
         <v>61</v>
       </c>
       <c r="C2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1264</v>
+      </c>
+      <c r="B3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C3" t="s">
         <v>4</v>
       </c>
     </row>
